--- a/output_final.xlsx
+++ b/output_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Listen_start</t>
   </si>
@@ -34,40 +34,28 @@
     <t>start_diff</t>
   </si>
   <si>
-    <t>4837.3457193</t>
-  </si>
-  <si>
-    <t>4856.393032</t>
-  </si>
-  <si>
-    <t>4877.1384215</t>
-  </si>
-  <si>
-    <t>4838.3779054</t>
-  </si>
-  <si>
-    <t>4856.5845807</t>
-  </si>
-  <si>
-    <t>4877.5626075</t>
-  </si>
-  <si>
-    <t>4848.845448</t>
-  </si>
-  <si>
-    <t>4867.85424</t>
-  </si>
-  <si>
-    <t>4888.5957587</t>
-  </si>
-  <si>
-    <t>4853.5886915</t>
-  </si>
-  <si>
-    <t>4871.6352518</t>
-  </si>
-  <si>
-    <t>4891.4995272</t>
+    <t>1539.9161937</t>
+  </si>
+  <si>
+    <t>1562.0225384</t>
+  </si>
+  <si>
+    <t>1541.0589795</t>
+  </si>
+  <si>
+    <t>1562.2117658</t>
+  </si>
+  <si>
+    <t>1551.4564884</t>
+  </si>
+  <si>
+    <t>1573.505146</t>
+  </si>
+  <si>
+    <t>1558.2989893</t>
+  </si>
+  <si>
+    <t>1575.8329155</t>
   </si>
 </sst>
 </file>
@@ -425,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,19 +444,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>951.3750000000001</v>
+        <v>1250</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2">
-        <v>1.032186099999308</v>
+        <v>1.142785800000183</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -476,39 +464,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>951.375</v>
+        <v>1250</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3">
-        <v>0.1915486999996574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>808.625</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>0.4241860000001907</v>
+        <v>0.1892273999999361</v>
       </c>
     </row>
   </sheetData>

--- a/output_final.xlsx
+++ b/output_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Listen_start</t>
   </si>
@@ -34,28 +34,32 @@
     <t>start_diff</t>
   </si>
   <si>
-    <t>1539.9161937</t>
-  </si>
-  <si>
-    <t>1562.0225384</t>
-  </si>
-  <si>
-    <t>1541.0589795</t>
-  </si>
-  <si>
-    <t>1562.2117658</t>
-  </si>
-  <si>
-    <t>1551.4564884</t>
-  </si>
-  <si>
-    <t>1573.505146</t>
-  </si>
-  <si>
-    <t>1558.2989893</t>
-  </si>
-  <si>
-    <t>1575.8329155</t>
+    <t>4799.8950226</t>
+  </si>
+  <si>
+    <t>4822.0594192</t>
+  </si>
+  <si>
+    <t>4800.025131</t>
+  </si>
+  <si>
+    <t>4822.0235126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365_x000D_
+</t>
+  </si>
+  <si>
+    <t>4811.4082363</t>
+  </si>
+  <si>
+    <t>4833.5408547</t>
+  </si>
+  <si>
+    <t>4813.4254384</t>
+  </si>
+  <si>
+    <t>4836.8184474</t>
   </si>
 </sst>
 </file>
@@ -446,17 +450,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>1250</v>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>1.142785800000183</v>
+        <v>0.1301084000006085</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -466,17 +470,17 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>1250</v>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>0.1892273999999361</v>
+        <v>-0.03590660000008938</v>
       </c>
     </row>
   </sheetData>

--- a/output_final.xlsx
+++ b/output_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Listen_start</t>
   </si>
@@ -34,32 +34,28 @@
     <t>start_diff</t>
   </si>
   <si>
-    <t>4799.8950226</t>
-  </si>
-  <si>
-    <t>4822.0594192</t>
-  </si>
-  <si>
-    <t>4800.025131</t>
-  </si>
-  <si>
-    <t>4822.0235126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">365_x000D_
-</t>
-  </si>
-  <si>
-    <t>4811.4082363</t>
-  </si>
-  <si>
-    <t>4833.5408547</t>
-  </si>
-  <si>
-    <t>4813.4254384</t>
-  </si>
-  <si>
-    <t>4836.8184474</t>
+    <t>8917.1622553</t>
+  </si>
+  <si>
+    <t>8981.6220102</t>
+  </si>
+  <si>
+    <t>8918.401366</t>
+  </si>
+  <si>
+    <t>8981.656001</t>
+  </si>
+  <si>
+    <t>8930.6574626</t>
+  </si>
+  <si>
+    <t>8995.0509062</t>
+  </si>
+  <si>
+    <t>8967.0377007</t>
+  </si>
+  <si>
+    <t>9031.1469414</t>
   </si>
 </sst>
 </file>
@@ -450,17 +446,17 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>0.1301084000006085</v>
+        <v>1.23911070000031</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,17 +466,17 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3">
+        <v>307.2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>-0.03590660000008938</v>
+        <v>0.03399079999871901</v>
       </c>
     </row>
   </sheetData>
